--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.04339299999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.130179</v>
+      </c>
+      <c r="I2">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="J2">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H2">
-        <v>1.679369</v>
-      </c>
-      <c r="I2">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J2">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>3.366178666666666</v>
+        <v>1.580629</v>
       </c>
       <c r="N2">
-        <v>10.098536</v>
+        <v>4.741887</v>
       </c>
       <c r="O2">
-        <v>0.6703392421572546</v>
+        <v>0.9548170682350041</v>
       </c>
       <c r="P2">
-        <v>0.6703392421572546</v>
+        <v>0.9548170682350042</v>
       </c>
       <c r="Q2">
-        <v>1.884352033753778</v>
+        <v>0.068588234197</v>
       </c>
       <c r="R2">
-        <v>16.959168303784</v>
+        <v>0.617294107773</v>
       </c>
       <c r="S2">
-        <v>0.3297287218623804</v>
+        <v>0.06664829164944902</v>
       </c>
       <c r="T2">
-        <v>0.3297287218623804</v>
+        <v>0.06664829164944903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.04339299999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.130179</v>
+      </c>
+      <c r="I3">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="J3">
+        <v>0.0698021577815419</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H3">
-        <v>1.679369</v>
-      </c>
-      <c r="I3">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J3">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.580629</v>
+        <v>0.074797</v>
       </c>
       <c r="N3">
-        <v>4.741887</v>
+        <v>0.224391</v>
       </c>
       <c r="O3">
-        <v>0.3147657183155398</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="P3">
-        <v>0.3147657183155398</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="Q3">
-        <v>0.8848197810336668</v>
+        <v>0.003245666220999999</v>
       </c>
       <c r="R3">
-        <v>7.963378029303001</v>
+        <v>0.029210995989</v>
       </c>
       <c r="S3">
-        <v>0.1548280205889089</v>
+        <v>0.003153866132092881</v>
       </c>
       <c r="T3">
-        <v>0.1548280205889089</v>
+        <v>0.003153866132092881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.4205383333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.261615</v>
+      </c>
+      <c r="I4">
+        <v>0.6764796878879081</v>
+      </c>
+      <c r="J4">
+        <v>0.6764796878879081</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0.5597896666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.679369</v>
-      </c>
-      <c r="I4">
-        <v>0.4918833646099291</v>
-      </c>
-      <c r="J4">
-        <v>0.491883364609929</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.07479699999999999</v>
+        <v>1.580629</v>
       </c>
       <c r="N4">
-        <v>0.224391</v>
+        <v>4.741887</v>
       </c>
       <c r="O4">
-        <v>0.01489503952720558</v>
+        <v>0.9548170682350041</v>
       </c>
       <c r="P4">
-        <v>0.01489503952720558</v>
+        <v>0.9548170682350042</v>
       </c>
       <c r="Q4">
-        <v>0.04187058769766667</v>
+        <v>0.6647150852783333</v>
       </c>
       <c r="R4">
-        <v>0.376835289279</v>
+        <v>5.982435767505</v>
       </c>
       <c r="S4">
-        <v>0.007326622158639767</v>
+        <v>0.6459143523096631</v>
       </c>
       <c r="T4">
-        <v>0.007326622158639767</v>
+        <v>0.6459143523096631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.366178666666666</v>
+        <v>0.074797</v>
       </c>
       <c r="N5">
-        <v>10.098536</v>
+        <v>0.224391</v>
       </c>
       <c r="O5">
-        <v>0.6703392421572546</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="P5">
-        <v>0.6703392421572546</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="Q5">
-        <v>1.415607166182222</v>
+        <v>0.03145500571833333</v>
       </c>
       <c r="R5">
-        <v>12.74046449564</v>
+        <v>0.283095051465</v>
       </c>
       <c r="S5">
-        <v>0.2477065501580695</v>
+        <v>0.03056533557824504</v>
       </c>
       <c r="T5">
-        <v>0.2477065501580695</v>
+        <v>0.03056533557824504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4205383333333333</v>
+        <v>0.1577256666666667</v>
       </c>
       <c r="H6">
-        <v>1.261615</v>
+        <v>0.473177</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>4.741887</v>
       </c>
       <c r="O6">
-        <v>0.3147657183155398</v>
+        <v>0.9548170682350041</v>
       </c>
       <c r="P6">
-        <v>0.3147657183155398</v>
+        <v>0.9548170682350042</v>
       </c>
       <c r="Q6">
-        <v>0.6647150852783333</v>
+        <v>0.2493057627776667</v>
       </c>
       <c r="R6">
-        <v>5.982435767505</v>
+        <v>2.243751864999</v>
       </c>
       <c r="S6">
-        <v>0.1163135399041403</v>
+        <v>0.242254424275892</v>
       </c>
       <c r="T6">
-        <v>0.1163135399041403</v>
+        <v>0.2422544242758921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4205383333333333</v>
+        <v>0.1577256666666667</v>
       </c>
       <c r="H7">
-        <v>1.261615</v>
+        <v>0.473177</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,214 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.07479699999999999</v>
+        <v>0.074797</v>
       </c>
       <c r="N7">
         <v>0.224391</v>
       </c>
       <c r="O7">
-        <v>0.01489503952720558</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="P7">
-        <v>0.01489503952720558</v>
+        <v>0.04518293176499584</v>
       </c>
       <c r="Q7">
-        <v>0.03145500571833332</v>
+        <v>0.01179740668966667</v>
       </c>
       <c r="R7">
-        <v>0.283095051465</v>
+        <v>0.106176660207</v>
       </c>
       <c r="S7">
-        <v>0.005504077075778049</v>
+        <v>0.01146373005465792</v>
       </c>
       <c r="T7">
-        <v>0.00550407707577805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.473177</v>
-      </c>
-      <c r="I8">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J8">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>3.366178666666666</v>
-      </c>
-      <c r="N8">
-        <v>10.098536</v>
-      </c>
-      <c r="O8">
-        <v>0.6703392421572546</v>
-      </c>
-      <c r="P8">
-        <v>0.6703392421572546</v>
-      </c>
-      <c r="Q8">
-        <v>0.5309327743191111</v>
-      </c>
-      <c r="R8">
-        <v>4.778394968872</v>
-      </c>
-      <c r="S8">
-        <v>0.09290397013680469</v>
-      </c>
-      <c r="T8">
-        <v>0.09290397013680468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.473177</v>
-      </c>
-      <c r="I9">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J9">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.580629</v>
-      </c>
-      <c r="N9">
-        <v>4.741887</v>
-      </c>
-      <c r="O9">
-        <v>0.3147657183155398</v>
-      </c>
-      <c r="P9">
-        <v>0.3147657183155398</v>
-      </c>
-      <c r="Q9">
-        <v>0.2493057627776667</v>
-      </c>
-      <c r="R9">
-        <v>2.243751864999</v>
-      </c>
-      <c r="S9">
-        <v>0.04362415782249055</v>
-      </c>
-      <c r="T9">
-        <v>0.04362415782249054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1577256666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.473177</v>
-      </c>
-      <c r="I10">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="J10">
-        <v>0.138592468252083</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.07479699999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.224391</v>
-      </c>
-      <c r="O10">
-        <v>0.01489503952720558</v>
-      </c>
-      <c r="P10">
-        <v>0.01489503952720558</v>
-      </c>
-      <c r="Q10">
-        <v>0.01179740668966667</v>
-      </c>
-      <c r="R10">
-        <v>0.106176660207</v>
-      </c>
-      <c r="S10">
-        <v>0.002064340292787761</v>
-      </c>
-      <c r="T10">
-        <v>0.00206434029278776</v>
+        <v>0.01146373005465792</v>
       </c>
     </row>
   </sheetData>
